--- a/database.xlsx
+++ b/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tribb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tribb\Documents\GitHub\wordmasher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F887C5E8-528A-4AD9-B6E2-B42BD9F32820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069492C1-7FC4-459A-AF40-887385509882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{F6EBA7F2-997F-4C1F-B15C-CDCADC900A12}"/>
   </bookViews>
@@ -145,7 +145,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -498,22 +498,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="1">
@@ -521,22 +521,22 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="1">
@@ -544,22 +544,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="1">
@@ -567,22 +567,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="1">
@@ -590,22 +590,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="1">
